--- a/utils/data/intervalliConfidenza/Test1/CI_Test1_300ms.xlsx
+++ b/utils/data/intervalliConfidenza/Test1/CI_Test1_300ms.xlsx
@@ -439,22 +439,22 @@
         <v>4.62962962962963</v>
       </c>
       <c r="F2">
-        <v>0.267782</v>
+        <v>0.303731</v>
       </c>
       <c r="G2">
-        <v>0.144118</v>
+        <v>0.06384099999999999</v>
       </c>
       <c r="H2">
-        <v>0.06445152895626294</v>
+        <v>0.02855056315031281</v>
       </c>
       <c r="I2">
-        <v>0.1263249967542754</v>
+        <v>0.05595910377461311</v>
       </c>
       <c r="J2">
-        <v>0.3941069967542754</v>
+        <v>0.3596901037746131</v>
       </c>
       <c r="K2">
-        <v>0.1414570032457247</v>
+        <v>0.2477718962253869</v>
       </c>
     </row>
   </sheetData>
